--- a/pipe_data.xlsx
+++ b/pipe_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars_Goray\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\heat_net_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CDDED-871C-45AD-828B-10EE650B6271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB6401-0A2C-47B2-B5F1-41280420A3EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8508" xr2:uid="{AC4DDAF7-09D1-46D9-9EBE-54012C8EDE68}"/>
   </bookViews>
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -132,6 +132,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -449,7 +450,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +485,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>20</v>
       </c>
       <c r="B2">
@@ -509,7 +510,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>25</v>
       </c>
       <c r="B3">
@@ -534,7 +535,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>32</v>
       </c>
       <c r="B4">
@@ -559,7 +560,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>40</v>
       </c>
       <c r="B5">
@@ -584,7 +585,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>50</v>
       </c>
       <c r="B6">
@@ -602,7 +603,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>65</v>
       </c>
       <c r="B7">
@@ -620,7 +621,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>80</v>
       </c>
       <c r="B8">
@@ -638,7 +639,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>100</v>
       </c>
       <c r="B9">
@@ -656,7 +657,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>125</v>
       </c>
       <c r="B10">
@@ -674,7 +675,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>150</v>
       </c>
       <c r="B11">
@@ -692,7 +693,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>200</v>
       </c>
       <c r="B12">
@@ -711,5 +712,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>